--- a/Code/Results/Cases/Case_5_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.05204176671161</v>
+        <v>19.62974171293408</v>
       </c>
       <c r="C2">
-        <v>14.43493759990667</v>
+        <v>11.90515418833905</v>
       </c>
       <c r="D2">
-        <v>5.007908716678771</v>
+        <v>5.273071938883459</v>
       </c>
       <c r="E2">
-        <v>5.365591054139307</v>
+        <v>10.73751006893296</v>
       </c>
       <c r="F2">
-        <v>64.94302212652222</v>
+        <v>58.40536167705665</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.580173714488881</v>
+        <v>10.20398338144533</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.58184663465604</v>
+        <v>19.38323440442745</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.49544587619365</v>
+        <v>19.39771230713015</v>
       </c>
       <c r="C3">
-        <v>13.33644647116438</v>
+        <v>11.71739948170048</v>
       </c>
       <c r="D3">
-        <v>4.691868461263581</v>
+        <v>5.216086276269216</v>
       </c>
       <c r="E3">
-        <v>5.433596029146172</v>
+        <v>10.77371095808514</v>
       </c>
       <c r="F3">
-        <v>61.55422909592209</v>
+        <v>57.47542236806509</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.530747194921682</v>
+        <v>10.20837293539282</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.01197877834784</v>
+        <v>19.39223646570851</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.55152594096379</v>
+        <v>19.26257364858353</v>
       </c>
       <c r="C4">
-        <v>12.63601570255244</v>
+        <v>11.60724474835997</v>
       </c>
       <c r="D4">
-        <v>4.49199579637056</v>
+        <v>5.181422748973388</v>
       </c>
       <c r="E4">
-        <v>5.477438508016885</v>
+        <v>10.79727827854848</v>
       </c>
       <c r="F4">
-        <v>59.44055900686556</v>
+        <v>56.90513245647881</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.502977862847232</v>
+        <v>10.21193096383938</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.66861053197255</v>
+        <v>19.40398803934865</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19231400525166</v>
+        <v>19.20941934262618</v>
       </c>
       <c r="C5">
-        <v>12.3438563466722</v>
+        <v>11.56371910496087</v>
       </c>
       <c r="D5">
-        <v>4.4090488787313</v>
+        <v>5.167386590410773</v>
       </c>
       <c r="E5">
-        <v>5.495836316155723</v>
+        <v>10.80722020616768</v>
       </c>
       <c r="F5">
-        <v>58.57118036733235</v>
+        <v>56.67312497238495</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.492274625303299</v>
+        <v>10.21359756955083</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.53041772685758</v>
+        <v>19.41033945220009</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13235454033683</v>
+        <v>19.20071085665069</v>
       </c>
       <c r="C6">
-        <v>12.29493206953798</v>
+        <v>11.55657613311774</v>
       </c>
       <c r="D6">
-        <v>4.395184515812954</v>
+        <v>5.165061517764067</v>
       </c>
       <c r="E6">
-        <v>5.498923561127249</v>
+        <v>10.80889150686934</v>
       </c>
       <c r="F6">
-        <v>58.42634616400989</v>
+        <v>56.63463015741009</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.490533400604723</v>
+        <v>10.21388738643812</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.50757874411648</v>
+        <v>19.41148837811554</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.54670256177547</v>
+        <v>19.26184894114633</v>
       </c>
       <c r="C7">
-        <v>12.63210301707743</v>
+        <v>11.60665213131123</v>
       </c>
       <c r="D7">
-        <v>4.490883239577975</v>
+        <v>5.181233080257248</v>
       </c>
       <c r="E7">
-        <v>5.477684465903806</v>
+        <v>10.79741098856526</v>
       </c>
       <c r="F7">
-        <v>59.42886634753513</v>
+        <v>56.90200165818151</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.502831078057756</v>
+        <v>10.21195256331966</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.66673966009651</v>
+        <v>19.40406737413618</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52297031183634</v>
+        <v>19.54826225844449</v>
       </c>
       <c r="C8">
-        <v>14.06142893620386</v>
+        <v>11.83939763723914</v>
       </c>
       <c r="D8">
-        <v>4.900121679948021</v>
+        <v>5.253360266723604</v>
       </c>
       <c r="E8">
-        <v>5.388610193665263</v>
+        <v>10.74971474115319</v>
       </c>
       <c r="F8">
-        <v>63.78147992675224</v>
+        <v>58.08470302662953</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.562573929462904</v>
+        <v>10.20531765310049</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.38404391958585</v>
+        <v>19.3850452064388</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.21151034358626</v>
+        <v>20.16463181465948</v>
       </c>
       <c r="C9">
-        <v>16.6699827097833</v>
+        <v>12.33308491229793</v>
       </c>
       <c r="D9">
-        <v>5.658815001445181</v>
+        <v>5.397043490281657</v>
       </c>
       <c r="E9">
-        <v>5.230168558935421</v>
+        <v>10.66676207137593</v>
       </c>
       <c r="F9">
-        <v>72.05715654183831</v>
+        <v>60.40010644014433</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.701975575371677</v>
+        <v>10.19916581532182</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.31035086413647</v>
+        <v>19.39720184337342</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.77059521429764</v>
+        <v>20.64598627138448</v>
       </c>
       <c r="C10">
-        <v>18.4882028063509</v>
+        <v>12.71381497132857</v>
       </c>
       <c r="D10">
-        <v>6.194232368174812</v>
+        <v>5.503501399747526</v>
       </c>
       <c r="E10">
-        <v>5.123163147213453</v>
+        <v>10.61219537240914</v>
       </c>
       <c r="F10">
-        <v>78.00063067699406</v>
+        <v>62.08648415599741</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.820810033926213</v>
+        <v>10.19884609355878</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.92790099024425</v>
+        <v>19.43631965603098</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.90891965220202</v>
+        <v>20.87008020179707</v>
       </c>
       <c r="C11">
-        <v>19.29987640530966</v>
+        <v>12.88992159134418</v>
       </c>
       <c r="D11">
-        <v>6.434529799957772</v>
+        <v>5.552022358177561</v>
       </c>
       <c r="E11">
-        <v>5.07640269361512</v>
+        <v>10.58874159962467</v>
       </c>
       <c r="F11">
-        <v>80.68561539554263</v>
+        <v>62.84791786180784</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.879207358118136</v>
+        <v>10.19961630304799</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.6458073711161</v>
+        <v>19.46065497148231</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.33699583457215</v>
+        <v>20.95558421132854</v>
       </c>
       <c r="C12">
-        <v>19.60563220529732</v>
+        <v>12.95694422062275</v>
       </c>
       <c r="D12">
-        <v>6.525218275402321</v>
+        <v>5.570400427781181</v>
       </c>
       <c r="E12">
-        <v>5.058959889679366</v>
+        <v>10.58005594899964</v>
       </c>
       <c r="F12">
-        <v>81.70102912862231</v>
+        <v>63.13522761613337</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.902023493672721</v>
+        <v>10.20003986407436</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.91557419030784</v>
+        <v>19.47080745234929</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.24492129148121</v>
+        <v>20.93714219377285</v>
       </c>
       <c r="C13">
-        <v>19.53984254562409</v>
+        <v>12.94249611465856</v>
       </c>
       <c r="D13">
-        <v>6.505697538934414</v>
+        <v>5.566442338025453</v>
       </c>
       <c r="E13">
-        <v>5.062704947345495</v>
+        <v>10.58191786851938</v>
       </c>
       <c r="F13">
-        <v>81.48237443660923</v>
+        <v>63.07339929687621</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.897076983039748</v>
+        <v>10.19994277294555</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.85755917179102</v>
+        <v>19.4685793147398</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94419276832745</v>
+        <v>20.87710227862311</v>
       </c>
       <c r="C14">
-        <v>19.32505935805509</v>
+        <v>12.89542934394477</v>
       </c>
       <c r="D14">
-        <v>6.441995879171435</v>
+        <v>5.553534300203744</v>
       </c>
       <c r="E14">
-        <v>5.074962435198547</v>
+        <v>10.58802310816462</v>
       </c>
       <c r="F14">
-        <v>80.76917142165648</v>
+        <v>62.87157678723235</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.881069876749894</v>
+        <v>10.19964850496848</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.66803997444254</v>
+        <v>19.46147146159652</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75962378146028</v>
+        <v>20.84040729711566</v>
       </c>
       <c r="C15">
-        <v>19.19330952063047</v>
+        <v>12.86664074978992</v>
       </c>
       <c r="D15">
-        <v>6.402942274210612</v>
+        <v>5.545628036081167</v>
       </c>
       <c r="E15">
-        <v>5.082504569056988</v>
+        <v>10.59178820925135</v>
       </c>
       <c r="F15">
-        <v>80.33218839760039</v>
+        <v>62.74781467270179</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.871359107838614</v>
+        <v>10.19948544098091</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.55169808222763</v>
+        <v>19.45723963412994</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.69574246759165</v>
+        <v>20.63143641370438</v>
       </c>
       <c r="C16">
-        <v>18.4348968722528</v>
+        <v>12.70235736237088</v>
       </c>
       <c r="D16">
-        <v>6.178475716517221</v>
+        <v>5.500331529110892</v>
       </c>
       <c r="E16">
-        <v>5.126256692912524</v>
+        <v>10.61375558635303</v>
       </c>
       <c r="F16">
-        <v>77.82489044763295</v>
+        <v>62.03658987126168</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.817087317229523</v>
+        <v>10.19881420395936</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.88066315413276</v>
+        <v>19.43486064130146</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03694605907806</v>
+        <v>20.5044861240043</v>
       </c>
       <c r="C17">
-        <v>17.96607811609039</v>
+        <v>12.60226018931339</v>
       </c>
       <c r="D17">
-        <v>6.040040663159629</v>
+        <v>5.472560866529843</v>
       </c>
       <c r="E17">
-        <v>5.153580563727948</v>
+        <v>10.62758170934053</v>
       </c>
       <c r="F17">
-        <v>76.28278468724621</v>
+        <v>61.59866427041018</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.784956025910429</v>
+        <v>10.19863711269807</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.46473404309656</v>
+        <v>19.42280503746828</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65554199586644</v>
+        <v>20.43195545097134</v>
       </c>
       <c r="C18">
-        <v>17.69492900398538</v>
+        <v>12.54496581472114</v>
       </c>
       <c r="D18">
-        <v>5.96009728981292</v>
+        <v>5.456597189552176</v>
       </c>
       <c r="E18">
-        <v>5.169477703205144</v>
+        <v>10.63566303916502</v>
       </c>
       <c r="F18">
-        <v>75.39393810307632</v>
+        <v>61.34625577150091</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.766877915328158</v>
+        <v>10.19862142771259</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.22378139118412</v>
+        <v>19.41648685714536</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52595908143116</v>
+        <v>20.40748439909499</v>
       </c>
       <c r="C19">
-        <v>17.60284876017031</v>
+        <v>12.52561740052046</v>
       </c>
       <c r="D19">
-        <v>5.932970641021287</v>
+        <v>5.451194032743079</v>
       </c>
       <c r="E19">
-        <v>5.174891638910102</v>
+        <v>10.63842141136882</v>
       </c>
       <c r="F19">
-        <v>75.09263437991045</v>
+        <v>61.26071083113141</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.760824026292441</v>
+        <v>10.19863091002314</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.14188988598572</v>
+        <v>19.41445348995012</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10732811567266</v>
+        <v>20.51795038483303</v>
       </c>
       <c r="C20">
-        <v>18.01613555457119</v>
+        <v>12.61288745439396</v>
       </c>
       <c r="D20">
-        <v>6.054809283277592</v>
+        <v>5.475516207091133</v>
       </c>
       <c r="E20">
-        <v>5.150653217640559</v>
+        <v>10.62609656101013</v>
       </c>
       <c r="F20">
-        <v>76.44712930681089</v>
+        <v>61.64533809227858</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.788334229910155</v>
+        <v>10.19864704403269</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.50918529384514</v>
+        <v>19.42402465561604</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.03259836879478</v>
+        <v>20.8947206991028</v>
       </c>
       <c r="C21">
-        <v>19.38818447808813</v>
+        <v>12.90924556362616</v>
       </c>
       <c r="D21">
-        <v>6.460713444972999</v>
+        <v>5.55732566130694</v>
       </c>
       <c r="E21">
-        <v>5.071355036274482</v>
+        <v>10.58622454617681</v>
       </c>
       <c r="F21">
-        <v>80.9786795464708</v>
+        <v>62.9308864863202</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.885751791074041</v>
+        <v>10.19973135717269</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.72375867916987</v>
+        <v>19.46353380604304</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.27394933516088</v>
+        <v>21.14467611788595</v>
       </c>
       <c r="C22">
-        <v>20.27591330162348</v>
+        <v>13.10484741288149</v>
       </c>
       <c r="D22">
-        <v>6.724310826294376</v>
+        <v>5.610813356395066</v>
       </c>
       <c r="E22">
-        <v>5.021063642410096</v>
+        <v>10.56130657257316</v>
       </c>
       <c r="F22">
-        <v>83.93351175068238</v>
+        <v>63.76498006604591</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.95356161356016</v>
+        <v>10.20120892047465</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.50567774136255</v>
+        <v>19.49481587292924</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.61268118736606</v>
+        <v>21.01096071218062</v>
       </c>
       <c r="C23">
-        <v>19.80269966289754</v>
+        <v>13.0003029076297</v>
       </c>
       <c r="D23">
-        <v>6.583713920924299</v>
+        <v>5.582267092636058</v>
       </c>
       <c r="E23">
-        <v>5.047768823073446</v>
+        <v>10.5745017389685</v>
       </c>
       <c r="F23">
-        <v>82.35651553287907</v>
+        <v>63.32043217726871</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.916961218251615</v>
+        <v>10.20034989225893</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.08925193133037</v>
+        <v>19.47762177717754</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.07551670512435</v>
+        <v>20.5118617691013</v>
       </c>
       <c r="C24">
-        <v>17.99350967394483</v>
+        <v>12.60808207399127</v>
       </c>
       <c r="D24">
-        <v>6.048133508334003</v>
+        <v>5.474180090557915</v>
       </c>
       <c r="E24">
-        <v>5.151976083517053</v>
+        <v>10.62676758375843</v>
       </c>
       <c r="F24">
-        <v>76.37283627014077</v>
+        <v>61.62423883264157</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.786805720519605</v>
+        <v>10.19864228582691</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.48909461741831</v>
+        <v>19.42347135744643</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24213462340714</v>
+        <v>19.99252008330669</v>
       </c>
       <c r="C25">
-        <v>15.98326038645118</v>
+        <v>12.19602102589494</v>
       </c>
       <c r="D25">
-        <v>5.457850546317247</v>
+        <v>5.357981458067466</v>
       </c>
       <c r="E25">
-        <v>5.27134194628349</v>
+        <v>10.68807771864422</v>
       </c>
       <c r="F25">
-        <v>69.84495229655602</v>
+        <v>59.77543653153543</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.661611104571898</v>
+        <v>10.2000937335388</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.6959806758596</v>
+        <v>19.38861031543704</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_186/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_186/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.62974171293408</v>
+        <v>21.05204176671154</v>
       </c>
       <c r="C2">
-        <v>11.90515418833905</v>
+        <v>14.43493759990689</v>
       </c>
       <c r="D2">
-        <v>5.273071938883459</v>
+        <v>5.007908716678817</v>
       </c>
       <c r="E2">
-        <v>10.73751006893296</v>
+        <v>5.365591054139234</v>
       </c>
       <c r="F2">
-        <v>58.40536167705665</v>
+        <v>64.94302212652232</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.20398338144533</v>
+        <v>6.580173714488843</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.38323440442745</v>
+        <v>13.58184663465601</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39771230713015</v>
+        <v>19.49544587619361</v>
       </c>
       <c r="C3">
-        <v>11.71739948170048</v>
+        <v>13.33644647116446</v>
       </c>
       <c r="D3">
-        <v>5.216086276269216</v>
+        <v>4.691868461263547</v>
       </c>
       <c r="E3">
-        <v>10.77371095808514</v>
+        <v>5.433596029146122</v>
       </c>
       <c r="F3">
-        <v>57.47542236806509</v>
+        <v>61.55422909592196</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.20837293539282</v>
+        <v>6.530747194921655</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.39223646570851</v>
+        <v>13.01197877834785</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.26257364858353</v>
+        <v>18.55152594096376</v>
       </c>
       <c r="C4">
-        <v>11.60724474835997</v>
+        <v>12.63601570255257</v>
       </c>
       <c r="D4">
-        <v>5.181422748973388</v>
+        <v>4.491995796370603</v>
       </c>
       <c r="E4">
-        <v>10.79727827854848</v>
+        <v>5.477438508016882</v>
       </c>
       <c r="F4">
-        <v>56.90513245647881</v>
+        <v>59.44055900686583</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.21193096383938</v>
+        <v>6.502977862847198</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.40398803934865</v>
+        <v>12.66861053197242</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.20941934262618</v>
+        <v>18.19231400525165</v>
       </c>
       <c r="C5">
-        <v>11.56371910496087</v>
+        <v>12.34385634667221</v>
       </c>
       <c r="D5">
-        <v>5.167386590410773</v>
+        <v>4.409048878731325</v>
       </c>
       <c r="E5">
-        <v>10.80722020616768</v>
+        <v>5.495836316155604</v>
       </c>
       <c r="F5">
-        <v>56.67312497238495</v>
+        <v>58.57118036733223</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.21359756955083</v>
+        <v>6.492274625303302</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.41033945220009</v>
+        <v>12.53041772685757</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.20071085665069</v>
+        <v>18.13235454033684</v>
       </c>
       <c r="C6">
-        <v>11.55657613311774</v>
+        <v>12.29493206953803</v>
       </c>
       <c r="D6">
-        <v>5.165061517764067</v>
+        <v>4.395184515812926</v>
       </c>
       <c r="E6">
-        <v>10.80889150686934</v>
+        <v>5.498923561127143</v>
       </c>
       <c r="F6">
-        <v>56.63463015741009</v>
+        <v>58.42634616400964</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.21388738643812</v>
+        <v>6.490533400604678</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.41148837811554</v>
+        <v>12.50757874411643</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.26184894114633</v>
+        <v>18.54670256177547</v>
       </c>
       <c r="C7">
-        <v>11.60665213131123</v>
+        <v>12.63210301707754</v>
       </c>
       <c r="D7">
-        <v>5.181233080257248</v>
+        <v>4.490883239577854</v>
       </c>
       <c r="E7">
-        <v>10.79741098856526</v>
+        <v>5.477684465903952</v>
       </c>
       <c r="F7">
-        <v>56.90200165818151</v>
+        <v>59.42886634753476</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.21195256331966</v>
+        <v>6.502831078057747</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.40406737413618</v>
+        <v>12.66673966009654</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.54826225844449</v>
+        <v>20.52297031183635</v>
       </c>
       <c r="C8">
-        <v>11.83939763723914</v>
+        <v>14.06142893620388</v>
       </c>
       <c r="D8">
-        <v>5.253360266723604</v>
+        <v>4.900121679948071</v>
       </c>
       <c r="E8">
-        <v>10.74971474115319</v>
+        <v>5.388610193665184</v>
       </c>
       <c r="F8">
-        <v>58.08470302662953</v>
+        <v>63.78147992675265</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.20531765310049</v>
+        <v>6.562573929462888</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.3850452064388</v>
+        <v>13.38404391958578</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.16463181465948</v>
+        <v>24.21151034358634</v>
       </c>
       <c r="C9">
-        <v>12.33308491229793</v>
+        <v>16.66998270978339</v>
       </c>
       <c r="D9">
-        <v>5.397043490281657</v>
+        <v>5.658815001445242</v>
       </c>
       <c r="E9">
-        <v>10.66676207137593</v>
+        <v>5.230168558935408</v>
       </c>
       <c r="F9">
-        <v>60.40010644014433</v>
+        <v>72.05715654183842</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.19916581532182</v>
+        <v>6.701975575371683</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.39720184337342</v>
+        <v>15.31035086413653</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.64598627138448</v>
+        <v>26.77059521429768</v>
       </c>
       <c r="C10">
-        <v>12.71381497132857</v>
+        <v>18.48820280635077</v>
       </c>
       <c r="D10">
-        <v>5.503501399747526</v>
+        <v>6.19423236817485</v>
       </c>
       <c r="E10">
-        <v>10.61219537240914</v>
+        <v>5.123163147213416</v>
       </c>
       <c r="F10">
-        <v>62.08648415599741</v>
+        <v>78.00063067699425</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.19884609355878</v>
+        <v>6.820810033926226</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.43631965603098</v>
+        <v>16.92790099024426</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.87008020179707</v>
+        <v>27.90891965220218</v>
       </c>
       <c r="C11">
-        <v>12.88992159134418</v>
+        <v>19.2998764053097</v>
       </c>
       <c r="D11">
-        <v>5.552022358177561</v>
+        <v>6.434529799957946</v>
       </c>
       <c r="E11">
-        <v>10.58874159962467</v>
+        <v>5.076402693615085</v>
       </c>
       <c r="F11">
-        <v>62.84791786180784</v>
+        <v>80.68561539554356</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.19961630304799</v>
+        <v>6.879207358118163</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.46065497148231</v>
+        <v>17.64580737111615</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.95558421132854</v>
+        <v>28.33699583457203</v>
       </c>
       <c r="C12">
-        <v>12.95694422062275</v>
+        <v>19.60563220529743</v>
       </c>
       <c r="D12">
-        <v>5.570400427781181</v>
+        <v>6.525218275402232</v>
       </c>
       <c r="E12">
-        <v>10.58005594899964</v>
+        <v>5.058959889679308</v>
       </c>
       <c r="F12">
-        <v>63.13522761613337</v>
+        <v>81.70102912862166</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.20003986407436</v>
+        <v>6.902023493672655</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.47080745234929</v>
+        <v>17.91557419030784</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.93714219377285</v>
+        <v>28.24492129148135</v>
       </c>
       <c r="C13">
-        <v>12.94249611465856</v>
+        <v>19.53984254562421</v>
       </c>
       <c r="D13">
-        <v>5.566442338025453</v>
+        <v>6.505697538934549</v>
       </c>
       <c r="E13">
-        <v>10.58191786851938</v>
+        <v>5.062704947345437</v>
       </c>
       <c r="F13">
-        <v>63.07339929687621</v>
+        <v>81.48237443660986</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.19994277294555</v>
+        <v>6.897076983039767</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.4685793147398</v>
+        <v>17.85755917179116</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.87710227862311</v>
+        <v>27.94419276832748</v>
       </c>
       <c r="C14">
-        <v>12.89542934394477</v>
+        <v>19.3250593580549</v>
       </c>
       <c r="D14">
-        <v>5.553534300203744</v>
+        <v>6.441995879171511</v>
       </c>
       <c r="E14">
-        <v>10.58802310816462</v>
+        <v>5.074962435198488</v>
       </c>
       <c r="F14">
-        <v>62.87157678723235</v>
+        <v>80.76917142165676</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.19964850496848</v>
+        <v>6.881069876749887</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.46147146159652</v>
+        <v>17.66803997444259</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.84040729711566</v>
+        <v>27.75962378146045</v>
       </c>
       <c r="C15">
-        <v>12.86664074978992</v>
+        <v>19.19330952063065</v>
       </c>
       <c r="D15">
-        <v>5.545628036081167</v>
+        <v>6.402942274210662</v>
       </c>
       <c r="E15">
-        <v>10.59178820925135</v>
+        <v>5.082504569057027</v>
       </c>
       <c r="F15">
-        <v>62.74781467270179</v>
+        <v>80.33218839760097</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.19948544098091</v>
+        <v>6.871359107838634</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.45723963412994</v>
+        <v>17.55169808222773</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.63143641370438</v>
+        <v>26.69574246759151</v>
       </c>
       <c r="C16">
-        <v>12.70235736237088</v>
+        <v>18.43489687225274</v>
       </c>
       <c r="D16">
-        <v>5.500331529110892</v>
+        <v>6.178475716517161</v>
       </c>
       <c r="E16">
-        <v>10.61375558635303</v>
+        <v>5.126256692912629</v>
       </c>
       <c r="F16">
-        <v>62.03658987126168</v>
+        <v>77.82489044763281</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.19881420395936</v>
+        <v>6.817087317229524</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.43486064130146</v>
+        <v>16.88066315413267</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.5044861240043</v>
+        <v>26.0369460590781</v>
       </c>
       <c r="C17">
-        <v>12.60226018931339</v>
+        <v>17.96607811609037</v>
       </c>
       <c r="D17">
-        <v>5.472560866529843</v>
+        <v>6.040040663159721</v>
       </c>
       <c r="E17">
-        <v>10.62758170934053</v>
+        <v>5.153580563727939</v>
       </c>
       <c r="F17">
-        <v>61.59866427041018</v>
+        <v>76.28278468724686</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.19863711269807</v>
+        <v>6.784956025910405</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.42280503746828</v>
+        <v>16.4647340430966</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.43195545097134</v>
+        <v>25.65554199586638</v>
       </c>
       <c r="C18">
-        <v>12.54496581472114</v>
+        <v>17.69492900398554</v>
       </c>
       <c r="D18">
-        <v>5.456597189552176</v>
+        <v>5.960097289812862</v>
       </c>
       <c r="E18">
-        <v>10.63566303916502</v>
+        <v>5.169477703205162</v>
       </c>
       <c r="F18">
-        <v>61.34625577150091</v>
+        <v>75.39393810307602</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.19862142771259</v>
+        <v>6.766877915328109</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.41648685714536</v>
+        <v>16.22378139118412</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.40748439909499</v>
+        <v>25.52595908143114</v>
       </c>
       <c r="C19">
-        <v>12.52561740052046</v>
+        <v>17.6028487601703</v>
       </c>
       <c r="D19">
-        <v>5.451194032743079</v>
+        <v>5.932970641021354</v>
       </c>
       <c r="E19">
-        <v>10.63842141136882</v>
+        <v>5.17489163891014</v>
       </c>
       <c r="F19">
-        <v>61.26071083113141</v>
+        <v>75.09263437991056</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.19863091002314</v>
+        <v>6.760824026292529</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.41445348995012</v>
+        <v>16.1418898859857</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.51795038483303</v>
+        <v>26.10732811567294</v>
       </c>
       <c r="C20">
-        <v>12.61288745439396</v>
+        <v>18.01613555457134</v>
       </c>
       <c r="D20">
-        <v>5.475516207091133</v>
+        <v>6.054809283277794</v>
       </c>
       <c r="E20">
-        <v>10.62609656101013</v>
+        <v>5.150653217640545</v>
       </c>
       <c r="F20">
-        <v>61.64533809227858</v>
+        <v>76.44712930681169</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.19864704403269</v>
+        <v>6.788334229910229</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.42402465561604</v>
+        <v>16.50918529384526</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.8947206991028</v>
+        <v>28.0325983687945</v>
       </c>
       <c r="C21">
-        <v>12.90924556362616</v>
+        <v>19.38818447808817</v>
       </c>
       <c r="D21">
-        <v>5.55732566130694</v>
+        <v>6.460713444972874</v>
       </c>
       <c r="E21">
-        <v>10.58622454617681</v>
+        <v>5.071355036274348</v>
       </c>
       <c r="F21">
-        <v>62.9308864863202</v>
+        <v>80.97867954646993</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.19973135717269</v>
+        <v>6.885751791074019</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.46353380604304</v>
+        <v>17.72375867916973</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.14467611788595</v>
+        <v>29.27394933516093</v>
       </c>
       <c r="C22">
-        <v>13.10484741288149</v>
+        <v>20.27591330162345</v>
       </c>
       <c r="D22">
-        <v>5.610813356395066</v>
+        <v>6.724310826294408</v>
       </c>
       <c r="E22">
-        <v>10.56130657257316</v>
+        <v>5.021063642410155</v>
       </c>
       <c r="F22">
-        <v>63.76498006604591</v>
+        <v>83.933511750682</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.20120892047465</v>
+        <v>6.953561613560208</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.49481587292924</v>
+        <v>18.50567774136253</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.01096071218062</v>
+        <v>28.61268118736608</v>
       </c>
       <c r="C23">
-        <v>13.0003029076297</v>
+        <v>19.8026996628972</v>
       </c>
       <c r="D23">
-        <v>5.582267092636058</v>
+        <v>6.583713920924285</v>
       </c>
       <c r="E23">
-        <v>10.5745017389685</v>
+        <v>5.047768823073515</v>
       </c>
       <c r="F23">
-        <v>63.32043217726871</v>
+        <v>82.35651553287899</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.20034989225893</v>
+        <v>6.916961218251649</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.47762177717754</v>
+        <v>18.0892519313303</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.5118617691013</v>
+        <v>26.07551670512429</v>
       </c>
       <c r="C24">
-        <v>12.60808207399127</v>
+        <v>17.99350967394484</v>
       </c>
       <c r="D24">
-        <v>5.474180090557915</v>
+        <v>6.048133508333938</v>
       </c>
       <c r="E24">
-        <v>10.62676758375843</v>
+        <v>5.151976083517184</v>
       </c>
       <c r="F24">
-        <v>61.62423883264157</v>
+        <v>76.37283627014068</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.19864228582691</v>
+        <v>6.786805720519648</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.42347135744643</v>
+        <v>16.48909461741826</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.99252008330669</v>
+        <v>23.24213462340719</v>
       </c>
       <c r="C25">
-        <v>12.19602102589494</v>
+        <v>15.98326038645116</v>
       </c>
       <c r="D25">
-        <v>5.357981458067466</v>
+        <v>5.457850546317234</v>
       </c>
       <c r="E25">
-        <v>10.68807771864422</v>
+        <v>5.2713419462835</v>
       </c>
       <c r="F25">
-        <v>59.77543653153543</v>
+        <v>69.84495229655559</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.2000937335388</v>
+        <v>6.661611104571887</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.38861031543704</v>
+        <v>14.69598067585964</v>
       </c>
       <c r="N25">
         <v>0</v>
